--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.6870176041294594</v>
+        <v>-0.4243341782850507</v>
       </c>
       <c r="C7">
-        <v>1.572668578465801</v>
+        <v>1.33319951928904</v>
       </c>
       <c r="D7">
-        <v>3.618545849818505</v>
+        <v>2.878316400685</v>
       </c>
       <c r="E7">
-        <v>1.902247578476184</v>
+        <v>1.696560167127886</v>
       </c>
       <c r="F7">
-        <v>1.915979672388821</v>
+        <v>1.74227983373859</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-1.275047332076742</v>
+        <v>-0.8548487235232874</v>
       </c>
       <c r="C8">
-        <v>1.275047332076742</v>
+        <v>1.0621450549565</v>
       </c>
       <c r="D8">
-        <v>2.150410991622982</v>
+        <v>1.568653354045059</v>
       </c>
       <c r="E8">
-        <v>1.466427970144794</v>
+        <v>1.252458923096905</v>
       </c>
       <c r="F8">
-        <v>0.8363932827619351</v>
+        <v>1.002728486043355</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-2.325858260074654</v>
+        <v>-0.4816660954554475</v>
       </c>
       <c r="C9">
-        <v>2.325858260074654</v>
+        <v>1.068906077927655</v>
       </c>
       <c r="D9">
-        <v>5.409616645957497</v>
+        <v>1.932725749686544</v>
       </c>
       <c r="E9">
-        <v>2.325858260074654</v>
+        <v>1.390225071593281</v>
+      </c>
+      <c r="F9">
+        <v>1.597211721489318</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.1119550751434417</v>
+      </c>
+      <c r="C10">
+        <v>0.1119550751434417</v>
+      </c>
+      <c r="D10">
+        <v>0.01253393885037368</v>
+      </c>
+      <c r="E10">
+        <v>0.1119550751434417</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1146304204087605</v>
+        <v>0.4257792306779735</v>
       </c>
       <c r="C2">
-        <v>1.148241118689256</v>
+        <v>2.217877629047371</v>
       </c>
       <c r="D2">
-        <v>2.032781502378305</v>
+        <v>14.65900008690008</v>
       </c>
       <c r="E2">
-        <v>1.425756466714531</v>
+        <v>3.828707365012384</v>
       </c>
       <c r="F2">
-        <v>1.474787577072425</v>
+        <v>3.842820107199375</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.008858815447382578</v>
+        <v>0.7099789703697202</v>
       </c>
       <c r="C3">
-        <v>1.322567214530173</v>
+        <v>2.408638386592436</v>
       </c>
       <c r="D3">
-        <v>2.827542887756261</v>
+        <v>14.21756035022525</v>
       </c>
       <c r="E3">
-        <v>1.681529924728151</v>
+        <v>3.770618032925802</v>
       </c>
       <c r="F3">
-        <v>1.750167547190999</v>
+        <v>3.740769621219512</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02869558794705781</v>
+        <v>0.5489223891954144</v>
       </c>
       <c r="C4">
-        <v>0.8191955776500305</v>
+        <v>2.142174787177605</v>
       </c>
       <c r="D4">
-        <v>1.680626597878762</v>
+        <v>13.77538404339546</v>
       </c>
       <c r="E4">
-        <v>1.296389832526761</v>
+        <v>3.711520449006776</v>
       </c>
       <c r="F4">
-        <v>1.353703268591003</v>
+        <v>3.708743454234583</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.18013738224636</v>
+        <v>0.7318547725335144</v>
       </c>
       <c r="C5">
-        <v>0.7963062644341583</v>
+        <v>2.680487997555033</v>
       </c>
       <c r="D5">
-        <v>0.9011921867243661</v>
+        <v>18.5702968988901</v>
       </c>
       <c r="E5">
-        <v>0.9493114276802771</v>
+        <v>4.309326733828627</v>
       </c>
       <c r="F5">
-        <v>0.9775566383928731</v>
+        <v>4.291666599746589</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.3151016387219627</v>
+        <v>0.6680602970490725</v>
       </c>
       <c r="C6">
-        <v>1.12118417124981</v>
+        <v>2.486664053058593</v>
       </c>
       <c r="D6">
-        <v>1.720587164687392</v>
+        <v>14.69638859368018</v>
       </c>
       <c r="E6">
-        <v>1.311711540197536</v>
+        <v>3.833586909629176</v>
       </c>
       <c r="F6">
-        <v>1.342178213850789</v>
+        <v>3.815739570344253</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.4243341782850507</v>
+        <v>0.6768152876208176</v>
       </c>
       <c r="C7">
-        <v>1.33319951928904</v>
+        <v>2.661179530454853</v>
       </c>
       <c r="D7">
-        <v>2.878316400685</v>
+        <v>17.12325255943136</v>
       </c>
       <c r="E7">
-        <v>1.696560167127886</v>
+        <v>4.138025200434545</v>
       </c>
       <c r="F7">
-        <v>1.74227983373859</v>
+        <v>4.127409698292647</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.8548487235232874</v>
+        <v>0.5558206604367482</v>
       </c>
       <c r="C8">
-        <v>1.0621450549565</v>
+        <v>2.164092278013886</v>
       </c>
       <c r="D8">
-        <v>1.568653354045059</v>
+        <v>13.2712682877262</v>
       </c>
       <c r="E8">
-        <v>1.252458923096905</v>
+        <v>3.642975197242798</v>
       </c>
       <c r="F8">
-        <v>1.002728486043355</v>
+        <v>3.641006746554708</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.4816660954554475</v>
+        <v>0.6185392898960298</v>
       </c>
       <c r="C9">
-        <v>1.068906077927655</v>
+        <v>2.459293877902776</v>
       </c>
       <c r="D9">
-        <v>1.932725749686544</v>
+        <v>13.75218320165127</v>
       </c>
       <c r="E9">
-        <v>1.390225071593281</v>
+        <v>3.70839361471396</v>
       </c>
       <c r="F9">
-        <v>1.597211721489318</v>
+        <v>3.69871776441472</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1119550751434417</v>
+        <v>0.7423495001570053</v>
       </c>
       <c r="C10">
-        <v>0.1119550751434417</v>
+        <v>2.530096135466969</v>
       </c>
       <c r="D10">
-        <v>0.01253393885037368</v>
+        <v>17.10393720569436</v>
       </c>
       <c r="E10">
-        <v>0.1119550751434417</v>
+        <v>4.135690656431446</v>
+      </c>
+      <c r="F10">
+        <v>4.116669771413056</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.5511858627957305</v>
+      </c>
+      <c r="C11">
+        <v>2.216421366742779</v>
+      </c>
+      <c r="D11">
+        <v>14.11284219713519</v>
+      </c>
+      <c r="E11">
+        <v>3.756706296363237</v>
+      </c>
+      <c r="F11">
+        <v>3.761095865066883</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4257792306779735</v>
+        <v>0.8729054620558272</v>
       </c>
       <c r="C2">
-        <v>2.217877629047371</v>
+        <v>1.815219781561128</v>
       </c>
       <c r="D2">
-        <v>14.65900008690008</v>
+        <v>10.48527348284812</v>
       </c>
       <c r="E2">
-        <v>3.828707365012384</v>
+        <v>3.238097200957395</v>
       </c>
       <c r="F2">
-        <v>3.842820107199375</v>
+        <v>3.156020188197708</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7099789703697202</v>
+        <v>0.5705085376199325</v>
       </c>
       <c r="C3">
-        <v>2.408638386592436</v>
+        <v>2.549581372391033</v>
       </c>
       <c r="D3">
-        <v>14.21756035022525</v>
+        <v>17.96663688838797</v>
       </c>
       <c r="E3">
-        <v>3.770618032925802</v>
+        <v>4.238706983077265</v>
       </c>
       <c r="F3">
-        <v>3.740769621219512</v>
+        <v>4.252315348056046</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5489223891954144</v>
+        <v>0.9809733857494989</v>
       </c>
       <c r="C4">
-        <v>2.142174787177605</v>
+        <v>2.755143531496009</v>
       </c>
       <c r="D4">
-        <v>13.77538404339546</v>
+        <v>17.33767364708628</v>
       </c>
       <c r="E4">
-        <v>3.711520449006776</v>
+        <v>4.16385322112659</v>
       </c>
       <c r="F4">
-        <v>3.708743454234583</v>
+        <v>4.098200338427169</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7318547725335144</v>
+        <v>0.7796923468595006</v>
       </c>
       <c r="C5">
-        <v>2.680487997555033</v>
+        <v>2.538240234672108</v>
       </c>
       <c r="D5">
-        <v>18.5702968988901</v>
+        <v>17.06363191478983</v>
       </c>
       <c r="E5">
-        <v>4.309326733828627</v>
+        <v>4.130814921391399</v>
       </c>
       <c r="F5">
-        <v>4.291666599746589</v>
+        <v>4.10959326519414</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6680602970490725</v>
+        <v>0.9784690441693839</v>
       </c>
       <c r="C6">
-        <v>2.486664053058593</v>
+        <v>3.157245746473258</v>
       </c>
       <c r="D6">
-        <v>14.69638859368018</v>
+        <v>23.19647943196707</v>
       </c>
       <c r="E6">
-        <v>3.833586909629176</v>
+        <v>4.816272358574323</v>
       </c>
       <c r="F6">
-        <v>3.815739570344253</v>
+        <v>4.779135268779009</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.6768152876208176</v>
+        <v>0.9337797391493523</v>
       </c>
       <c r="C7">
-        <v>2.661179530454853</v>
+        <v>2.855712669763669</v>
       </c>
       <c r="D7">
-        <v>17.12325255943136</v>
+        <v>18.20336195286742</v>
       </c>
       <c r="E7">
-        <v>4.138025200434545</v>
+        <v>4.26653981029914</v>
       </c>
       <c r="F7">
-        <v>4.127409698292647</v>
+        <v>4.220526698338592</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5558206604367482</v>
+        <v>0.9577349491508317</v>
       </c>
       <c r="C8">
-        <v>2.164092278013886</v>
+        <v>3.053928057267465</v>
       </c>
       <c r="D8">
-        <v>13.2712682877262</v>
+        <v>21.15389011660629</v>
       </c>
       <c r="E8">
-        <v>3.642975197242798</v>
+        <v>4.599335834292414</v>
       </c>
       <c r="F8">
-        <v>3.641006746554708</v>
+        <v>4.562326536244196</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.6185392898960298</v>
+        <v>0.7951063176841026</v>
       </c>
       <c r="C9">
-        <v>2.459293877902776</v>
+        <v>2.533398893255768</v>
       </c>
       <c r="D9">
-        <v>13.75218320165127</v>
+        <v>16.69223698970055</v>
       </c>
       <c r="E9">
-        <v>3.70839361471396</v>
+        <v>4.085613416575356</v>
       </c>
       <c r="F9">
-        <v>3.69871776441472</v>
+        <v>4.066005058678526</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.7423495001570053</v>
+        <v>0.7595042420159662</v>
       </c>
       <c r="C10">
-        <v>2.530096135466969</v>
+        <v>2.834380573090335</v>
       </c>
       <c r="D10">
-        <v>17.10393720569436</v>
+        <v>17.16476161472717</v>
       </c>
       <c r="E10">
-        <v>4.135690656431446</v>
+        <v>4.143037727890873</v>
       </c>
       <c r="F10">
-        <v>4.116669771413056</v>
+        <v>4.134075351224831</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.5511858627957305</v>
+        <v>0.9752670721986967</v>
       </c>
       <c r="C11">
-        <v>2.216421366742779</v>
+        <v>2.879719984736652</v>
       </c>
       <c r="D11">
-        <v>14.11284219713519</v>
+        <v>21.52816472569717</v>
       </c>
       <c r="E11">
-        <v>3.756706296363237</v>
+        <v>4.639845334243069</v>
       </c>
       <c r="F11">
-        <v>3.761095865066883</v>
+        <v>4.606522625915246</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.8729054620558272</v>
+        <v>0.372432736606822</v>
       </c>
       <c r="C2">
-        <v>1.815219781561128</v>
+        <v>2.619063551738779</v>
       </c>
       <c r="D2">
-        <v>10.48527348284812</v>
+        <v>23.15927064259555</v>
       </c>
       <c r="E2">
-        <v>3.238097200957395</v>
+        <v>4.812407987961489</v>
       </c>
       <c r="F2">
-        <v>3.156020188197708</v>
+        <v>4.845717262623262</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5705085376199325</v>
+        <v>0.06436319397563839</v>
       </c>
       <c r="C3">
-        <v>2.549581372391033</v>
+        <v>2.744095017829264</v>
       </c>
       <c r="D3">
-        <v>17.96663688838797</v>
+        <v>23.38972601463277</v>
       </c>
       <c r="E3">
-        <v>4.238706983077265</v>
+        <v>4.836292589849458</v>
       </c>
       <c r="F3">
-        <v>4.252315348056046</v>
+        <v>4.884960613746139</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.9809733857494989</v>
+        <v>0.3367729254375606</v>
       </c>
       <c r="C4">
-        <v>2.755143531496009</v>
+        <v>2.905511120774942</v>
       </c>
       <c r="D4">
-        <v>17.33767364708628</v>
+        <v>22.73626976693513</v>
       </c>
       <c r="E4">
-        <v>4.16385322112659</v>
+        <v>4.768256470339566</v>
       </c>
       <c r="F4">
-        <v>4.098200338427169</v>
+        <v>4.8056386898139</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7796923468595006</v>
+        <v>0.1606920638432899</v>
       </c>
       <c r="C5">
-        <v>2.538240234672108</v>
+        <v>3.013415626553616</v>
       </c>
       <c r="D5">
-        <v>17.06363191478983</v>
+        <v>24.31814105163908</v>
       </c>
       <c r="E5">
-        <v>4.130814921391399</v>
+        <v>4.931342722995338</v>
       </c>
       <c r="F5">
-        <v>4.10959326519414</v>
+        <v>4.98088114350354</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.9784690441693839</v>
+        <v>0.3452801118255731</v>
       </c>
       <c r="C6">
-        <v>3.157245746473258</v>
+        <v>3.332856983624331</v>
       </c>
       <c r="D6">
-        <v>23.19647943196707</v>
+        <v>25.17271329514386</v>
       </c>
       <c r="E6">
-        <v>4.816272358574323</v>
+        <v>5.017241602229642</v>
       </c>
       <c r="F6">
-        <v>4.779135268779009</v>
+        <v>5.059460063471103</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.9337797391493523</v>
+        <v>0.2526637188661144</v>
       </c>
       <c r="C7">
-        <v>2.855712669763669</v>
+        <v>3.173335729886531</v>
       </c>
       <c r="D7">
-        <v>18.20336195286742</v>
+        <v>26.35108212670401</v>
       </c>
       <c r="E7">
-        <v>4.26653981029914</v>
+        <v>5.133330510176021</v>
       </c>
       <c r="F7">
-        <v>4.220526698338592</v>
+        <v>5.183763510351113</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.9577349491508317</v>
+        <v>0.3086035603155297</v>
       </c>
       <c r="C8">
-        <v>3.053928057267465</v>
+        <v>3.48111105990218</v>
       </c>
       <c r="D8">
-        <v>21.15389011660629</v>
+        <v>26.05187013802933</v>
       </c>
       <c r="E8">
-        <v>4.599335834292414</v>
+        <v>5.104103264828145</v>
       </c>
       <c r="F8">
-        <v>4.562326536244196</v>
+        <v>5.152335148274883</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.7951063176841026</v>
+        <v>0.2033787227829306</v>
       </c>
       <c r="C9">
-        <v>2.533398893255768</v>
+        <v>3.124439938622011</v>
       </c>
       <c r="D9">
-        <v>16.69223698970055</v>
+        <v>23.6251089138144</v>
       </c>
       <c r="E9">
-        <v>4.085613416575356</v>
+        <v>4.860566727637262</v>
       </c>
       <c r="F9">
-        <v>4.066005058678526</v>
+        <v>4.912454093265776</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.7595042420159662</v>
+        <v>0.2285605960393908</v>
       </c>
       <c r="C10">
-        <v>2.834380573090335</v>
+        <v>3.349377590055617</v>
       </c>
       <c r="D10">
-        <v>17.16476161472717</v>
+        <v>25.07901460685525</v>
       </c>
       <c r="E10">
-        <v>4.143037727890873</v>
+        <v>5.007895227224233</v>
       </c>
       <c r="F10">
-        <v>4.134075351224831</v>
+        <v>5.061882085544378</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.9752670721986967</v>
+        <v>0.3835128682399718</v>
       </c>
       <c r="C11">
-        <v>2.879719984736652</v>
+        <v>3.331810460747813</v>
       </c>
       <c r="D11">
-        <v>21.52816472569717</v>
+        <v>25.45961486176948</v>
       </c>
       <c r="E11">
-        <v>4.639845334243069</v>
+        <v>5.045752160161008</v>
       </c>
       <c r="F11">
-        <v>4.606522625915246</v>
+        <v>5.092142141478524</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2526637188661144</v>
+        <v>-0.1062043836119984</v>
       </c>
       <c r="C7">
-        <v>3.173335729886531</v>
+        <v>3.214038737436144</v>
       </c>
       <c r="D7">
-        <v>26.35108212670401</v>
+        <v>28.42386334192099</v>
       </c>
       <c r="E7">
-        <v>5.133330510176021</v>
+        <v>5.331403505824802</v>
       </c>
       <c r="F7">
-        <v>5.183763510351113</v>
+        <v>5.401897041383672</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3086035603155297</v>
+        <v>0.1126760984253048</v>
       </c>
       <c r="C8">
-        <v>3.48111105990218</v>
+        <v>3.736719421784253</v>
       </c>
       <c r="D8">
-        <v>26.05187013802933</v>
+        <v>28.69179275025208</v>
       </c>
       <c r="E8">
-        <v>5.104103264828145</v>
+        <v>5.356472043262438</v>
       </c>
       <c r="F8">
-        <v>5.152335148274883</v>
+        <v>5.429156327292642</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2033787227829306</v>
+        <v>0.3025403896483665</v>
       </c>
       <c r="C9">
-        <v>3.124439938622011</v>
+        <v>4.219950309719327</v>
       </c>
       <c r="D9">
-        <v>23.6251089138144</v>
+        <v>42.57676554919534</v>
       </c>
       <c r="E9">
-        <v>4.860566727637262</v>
+        <v>6.525087397820457</v>
       </c>
       <c r="F9">
-        <v>4.912454093265776</v>
+        <v>6.68739858648746</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2285605960393908</v>
+        <v>-1.273655624497557</v>
       </c>
       <c r="C10">
-        <v>3.349377590055617</v>
+        <v>4.102290063633903</v>
       </c>
       <c r="D10">
-        <v>25.07901460685525</v>
+        <v>42.28739103502502</v>
       </c>
       <c r="E10">
-        <v>5.007895227224233</v>
+        <v>6.502875597381901</v>
       </c>
       <c r="F10">
-        <v>5.061882085544378</v>
+        <v>6.637315603262485</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3835128682399718</v>
+        <v>-3.449580058531092</v>
       </c>
       <c r="C11">
-        <v>3.331810460747813</v>
+        <v>5.366474568182582</v>
       </c>
       <c r="D11">
-        <v>25.45961486176948</v>
+        <v>52.70517324201703</v>
       </c>
       <c r="E11">
-        <v>5.045752160161008</v>
+        <v>7.259832865983695</v>
       </c>
       <c r="F11">
-        <v>5.092142141478524</v>
+        <v>7.141915942326126</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
